--- a/test2.xlsx
+++ b/test2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="9600" windowWidth="21570" windowHeight="8145"/>
+    <workbookView xWindow="0" yWindow="10200" windowWidth="21570" windowHeight="8145"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -391,10 +391,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -404,7 +404,7 @@
     <col min="3" max="3" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -414,11 +414,11 @@
       <c r="C1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" t="s">
+      <c r="D1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -428,11 +428,11 @@
       <c r="C3" t="s">
         <v>3</v>
       </c>
-      <c r="E3">
+      <c r="D3">
         <v>312</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -442,11 +442,11 @@
       <c r="C4" t="s">
         <v>4</v>
       </c>
-      <c r="E4">
+      <c r="D4">
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -456,11 +456,11 @@
       <c r="C5" t="s">
         <v>5</v>
       </c>
-      <c r="E5">
+      <c r="D5">
         <v>111</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -470,7 +470,7 @@
       <c r="C6" t="s">
         <v>6</v>
       </c>
-      <c r="E6">
+      <c r="D6">
         <v>65</v>
       </c>
     </row>

--- a/test2.xlsx
+++ b/test2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="10200" windowWidth="21570" windowHeight="8145"/>
+    <workbookView xWindow="0" yWindow="13800" windowWidth="21570" windowHeight="8145"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -24,54 +24,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
-  <si>
-    <t>Здание пети</t>
-  </si>
-  <si>
-    <t>Здание коли</t>
-  </si>
-  <si>
-    <t>Здание ильи</t>
-  </si>
-  <si>
-    <t>Улица думкина</t>
-  </si>
-  <si>
-    <t>Переулок лупкина</t>
-  </si>
-  <si>
-    <t>Улица 54ая</t>
-  </si>
-  <si>
-    <t>улица негрика</t>
-  </si>
-  <si>
-    <t>ADRESS</t>
-  </si>
-  <si>
-    <t>ИП ИНТЕГРАЛ</t>
-  </si>
-  <si>
-    <t>NAzvaKontrory</t>
-  </si>
-  <si>
-    <t>ZATRATY</t>
-  </si>
-  <si>
-    <t>44-423</t>
-  </si>
-  <si>
-    <t>211-12</t>
-  </si>
-  <si>
-    <t>NomerTelefon</t>
-  </si>
-  <si>
-    <t>123-12</t>
-  </si>
-  <si>
-    <t>771-12</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+  <si>
+    <t>фирма 19</t>
+  </si>
+  <si>
+    <t>Фирма 12</t>
+  </si>
+  <si>
+    <t>ИП ХЗКТОТЫЧ</t>
+  </si>
+  <si>
+    <t>Фирма 72</t>
+  </si>
+  <si>
+    <t>Kilovaty_2</t>
+  </si>
+  <si>
+    <t>NumberSCH_2</t>
+  </si>
+  <si>
+    <t>KONTORY_2</t>
   </si>
 </sst>
 </file>
@@ -108,9 +81,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -391,10 +367,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -404,75 +380,63 @@
     <col min="3" max="3" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>9</v>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>123</v>
+      </c>
+      <c r="C2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B5" s="1">
         <v>1</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6">
-        <v>65</v>
-      </c>
+      <c r="C5">
+        <v>31245</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B6" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/test2.xlsx
+++ b/test2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="13800" windowWidth="21570" windowHeight="8145"/>
+    <workbookView xWindow="0" yWindow="15000" windowWidth="21570" windowHeight="8145"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -370,7 +370,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -396,7 +396,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>123</v>
+        <v>1</v>
       </c>
       <c r="C2">
         <v>43</v>
@@ -406,9 +406,7 @@
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="1">
-        <v>1</v>
-      </c>
+      <c r="B3" s="1"/>
       <c r="C3">
         <v>1232</v>
       </c>
@@ -417,9 +415,7 @@
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="1">
-        <v>1</v>
-      </c>
+      <c r="B4" s="1"/>
       <c r="C4">
         <v>222</v>
       </c>
@@ -428,9 +424,7 @@
       <c r="A5" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="1">
-        <v>1</v>
-      </c>
+      <c r="B5" s="1"/>
       <c r="C5">
         <v>31245</v>
       </c>

--- a/test2.xlsx
+++ b/test2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="15000" windowWidth="21570" windowHeight="8145"/>
+    <workbookView xWindow="0" yWindow="17400" windowWidth="21570" windowHeight="8145"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
     <t>NumberSCH_2</t>
   </si>
   <si>
-    <t>KONTORY_2</t>
+    <t>Kontory_2</t>
   </si>
 </sst>
 </file>
